--- a/testData/TC009SupplierPortalEndToEndTestcase.xlsx
+++ b/testData/TC009SupplierPortalEndToEndTestcase.xlsx
@@ -84,13 +84,13 @@
     <t>Confirmed</t>
   </si>
   <si>
-    <t>13684</t>
-  </si>
-  <si>
     <t>Welcome500</t>
   </si>
   <si>
     <t>hotel hub</t>
+  </si>
+  <si>
+    <t>14907</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -527,10 +527,10 @@
     </row>
     <row r="2" spans="1:14" ht="75">
       <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -566,7 +566,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
